--- a/data/VBZ_data_updated.xlsx
+++ b/data/VBZ_data_updated.xlsx
@@ -45,9 +45,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>AY</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>substrate concentration</t>
+  </si>
+  <si>
+    <t>plasmid id</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -471,22 +471,22 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
@@ -506,7 +506,7 @@
         <v>7575</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="b">
         <f>FALSE</f>
@@ -537,7 +537,7 @@
         <v>7575</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>1</v>
@@ -567,13 +567,13 @@
         <v>7575</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -599,13 +599,13 @@
         <v>7575</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
@@ -631,7 +631,7 @@
         <v>7580</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="b">
         <f>FALSE</f>
@@ -662,7 +662,7 @@
         <v>7580</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>7580</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -724,13 +724,13 @@
         <v>7580</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -756,7 +756,7 @@
         <v>7583</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="b">
         <f>FALSE</f>
@@ -787,7 +787,7 @@
         <v>7583</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>7583</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>7583</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>7589</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="b">
         <f>FALSE</f>
@@ -912,7 +912,7 @@
         <v>7589</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>7589</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>7589</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>1</v>

--- a/data/VBZ_data_updated.xlsx
+++ b/data/VBZ_data_updated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>Coumaric acid</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>plasmid id</t>
+  </si>
+  <si>
+    <t>incubation time</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -456,20 +462,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="8" customWidth="1"/>
+    <col min="1" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -488,20 +494,23 @@
       <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>7575</v>
       </c>
@@ -512,27 +521,33 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
         <v>589.19794688000002</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>661.21555967999996</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>692.02098688000001</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>747.78841088000001</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>7575</v>
       </c>
@@ -549,20 +564,23 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
         <v>585.77485823999996</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>723.54943488000004</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>681.18989824000005</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>686.49047040000005</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>7575</v>
       </c>
@@ -581,20 +599,23 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7">
         <v>1159.1516876799999</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>1153.6448768</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>1309.71543552</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>1164.0137062399999</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>7575</v>
       </c>
@@ -613,20 +634,23 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
         <v>1709.3989632</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>1770.9458124800001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>2093.0290585600001</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>1685.6175052799999</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>7580</v>
       </c>
@@ -644,20 +668,23 @@
       <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7">
         <v>507.62697728000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>500.36358144000002</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>573.73241343999996</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>552.39026176000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>7580</v>
       </c>
@@ -674,20 +701,23 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7">
         <v>671.31651583999997</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>605.36990719999994</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>670.59112447999996</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>705.28427008000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7580</v>
       </c>
@@ -706,20 +736,23 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
         <v>1222.4622336</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>1151.45684992</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>1029.1217305600001</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>1098.96553984</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7580</v>
       </c>
@@ -738,20 +771,23 @@
       <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
         <v>1472.00871424</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>1474.1351065599999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>1565.3708492799999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>1667.0180915200001</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>7583</v>
       </c>
@@ -769,20 +805,23 @@
       <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7">
         <v>212.1809576</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>177.554596</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>189.04597039999999</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>193.26664880000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>7583</v>
       </c>
@@ -799,20 +838,23 @@
       <c r="F11" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7">
         <v>305.61596320000001</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>251.43746640000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>247.08554799999999</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>241.58134240000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7583</v>
       </c>
@@ -831,20 +873,23 @@
       <c r="F12" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
         <v>1046.1639112</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>952.37980719999996</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>893.09082479999995</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>1094.1662535999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>7583</v>
       </c>
@@ -863,20 +908,23 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7">
         <v>1625.3680280000001</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>1648.1644160000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>1682.7487808000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>1445.2988736</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>7589</v>
       </c>
@@ -894,20 +942,23 @@
       <c r="F14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7">
         <v>275.1289112</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>252.01229760000001</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>261.22009600000001</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>270.66150160000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>7589</v>
       </c>
@@ -924,20 +975,23 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7">
         <v>294.85690799999998</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>353.08022160000002</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <v>367.19377120000001</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>352.83349040000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>7589</v>
       </c>
@@ -956,20 +1010,23 @@
       <c r="F16" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7">
         <v>1085.4387936000001</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>1013.0441848</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>1027.5934511999999</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>940.16136319999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>7589</v>
       </c>
@@ -988,16 +1045,19 @@
       <c r="F17" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="7">
         <v>1971.5528999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>1891.1526512</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <v>2176.4605368000002</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="7">
         <v>1903.6230760000001</v>
       </c>
     </row>
